--- a/public/u_excel/3.S.1.xlsx
+++ b/public/u_excel/3.S.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\SIGEM\3.- Sociodemográfico\3.Salud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BA337-F6EC-4D3F-98D8-205BEDC0B03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B5FFF8-5E8D-44A8-B10C-D2D0D474058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.S.1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
-  <si>
-    <t>3.S.1 Esperanza de vida de los Estados Unidos Mexicanos y del
-Estado de Chihuahua según sexo</t>
-  </si>
   <si>
     <t>Estados Unidos Mexicanos</t>
   </si>
@@ -91,6 +87,9 @@
       <t>2011 a 2018: CONAPO Proyecciones de la población 2010-2050.</t>
     </r>
   </si>
+  <si>
+    <t>3.S.1 Esperanza de vida de los Estados Unidos Mexicanos y del Estado de Chihuahua según sexo</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -590,17 +589,6 @@
       <top style="double">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -611,6 +599,99 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -659,60 +740,117 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -777,16 +915,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>477021</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92966</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2153421</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,7 +947,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="28575"/>
+          <a:off x="771525" y="133350"/>
           <a:ext cx="4477521" cy="969266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -819,45 +957,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4477521" cy="969266"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Logo2.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="28575"/>
-          <a:ext cx="4477521" cy="969266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1146,842 +1245,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:E98"/>
+  <dimension ref="B7:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="2:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="13" t="s">
+      <c r="D8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="14" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="26">
-        <v>2001</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+        <v>73.7</v>
+      </c>
+      <c r="D10" s="27">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <v>73.7</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="29">
+        <v>71</v>
+      </c>
+      <c r="D11" s="30">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32">
+        <v>76.5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36">
+        <v>73.8</v>
+      </c>
+      <c r="D14" s="37">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="38">
+        <v>71.2</v>
+      </c>
+      <c r="D15" s="39">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="40">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D16" s="41">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42">
+        <v>74</v>
+      </c>
+      <c r="D18" s="27">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29">
+        <v>71.3</v>
+      </c>
+      <c r="D19" s="30">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="32">
+        <v>76.7</v>
+      </c>
+      <c r="D20" s="33">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>2004</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D22" s="27">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="29">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D23" s="30">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="32">
+        <v>76.8</v>
+      </c>
+      <c r="D24" s="33">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D26" s="27">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="29">
+        <v>71.5</v>
+      </c>
+      <c r="D27" s="30">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="32">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D28" s="33">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <v>2006</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="26">
+        <v>74.2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="29">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D31" s="43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="32">
+        <v>77</v>
+      </c>
+      <c r="D32" s="33">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>2007</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="26">
+        <v>74.3</v>
+      </c>
+      <c r="D34" s="27">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="29">
+        <v>71.7</v>
+      </c>
+      <c r="D35" s="30">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="32">
+        <v>77</v>
+      </c>
+      <c r="D36" s="33">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
+        <v>2008</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="26">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D38" s="27">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="29">
+        <v>71.8</v>
+      </c>
+      <c r="D39" s="30">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="32">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D40" s="33">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
+        <v>2009</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="42">
+        <v>74</v>
+      </c>
+      <c r="D42" s="27">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="29">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D43" s="30">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="44">
+        <v>77</v>
+      </c>
+      <c r="D44" s="33">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="34">
+        <v>2010</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D46" s="27">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="29">
+        <v>71.2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="32">
+        <v>77.2</v>
+      </c>
+      <c r="D48" s="33">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
+        <v>2011</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="26">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D50" s="27">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="29">
+        <v>71.2</v>
+      </c>
+      <c r="D51" s="30">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="32">
+        <v>77.2</v>
+      </c>
+      <c r="D52" s="33">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="34">
+        <v>2012</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="26">
+        <v>74.3</v>
+      </c>
+      <c r="D54" s="27">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="29">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D55" s="30">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="32">
+        <v>77.3</v>
+      </c>
+      <c r="D56" s="33">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="34">
+        <v>2013</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="26">
+        <v>74.5</v>
+      </c>
+      <c r="D58" s="27">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="29">
+        <v>71.7</v>
+      </c>
+      <c r="D59" s="30">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="44">
+        <v>77.41</v>
+      </c>
+      <c r="D60" s="45">
+        <v>75.77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="34">
+        <v>2014</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="35"/>
+    </row>
+    <row r="62" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="26">
+        <v>74.7</v>
+      </c>
+      <c r="D62" s="27">
         <v>72.3</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="29">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D63" s="30">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
-        <v>71</v>
-      </c>
-      <c r="E12" s="10">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
+      <c r="C64" s="32">
+        <v>77.5</v>
+      </c>
+      <c r="D64" s="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="34">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="46">
+        <v>74.94536117826928</v>
+      </c>
+      <c r="D66" s="47">
+        <v>72.942186025434211</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="48">
+        <v>72.343460617682041</v>
+      </c>
+      <c r="D67" s="43">
+        <v>69.748179833697392</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="49">
+        <v>77.67735676688585</v>
+      </c>
+      <c r="D68" s="45">
+        <v>76.295892526757854</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="34">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="46">
+        <v>75.147899954063476</v>
+      </c>
+      <c r="D70" s="47">
+        <v>73.514306421169394</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="48">
+        <v>72.616444926393328</v>
+      </c>
+      <c r="D71" s="43">
+        <v>70.640996347757238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="51">
+        <v>77.805927733117116</v>
+      </c>
+      <c r="D72" s="52">
+        <v>76.531281998252112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="21">
+        <v>75.341954714066006</v>
+      </c>
+      <c r="D76" s="17">
+        <v>74.014282765397908</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8">
+        <v>72.875216345325882</v>
+      </c>
+      <c r="D77" s="6">
+        <v>71.407194275962141</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="9">
+        <v>77.932030001243135</v>
+      </c>
+      <c r="D78" s="3">
+        <v>76.751725679305437</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="16">
+        <v>75.470828352862014</v>
+      </c>
+      <c r="D80" s="17">
+        <v>74.154430088968653</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="6">
+        <v>73.01341113533995</v>
+      </c>
+      <c r="D81" s="6">
+        <v>71.557504774414127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7">
+        <v>78.051116431260169</v>
+      </c>
+      <c r="D82" s="7">
+        <v>76.881201669250899</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
-        <v>76.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="27">
-        <v>2002</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9">
-        <v>71.2</v>
-      </c>
-      <c r="E16" s="9">
-        <v>69.7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="E17" s="2">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="27">
-        <v>2003</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="E20" s="10">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="E21" s="1">
-        <v>75.3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="27">
-        <v>2004</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E23" s="3">
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="10">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="E24" s="10">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>76.8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="27">
-        <v>2005</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E27" s="3">
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="10">
-        <v>71.5</v>
-      </c>
-      <c r="E28" s="10">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="E29" s="1">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="27">
-        <v>2006</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
-        <v>74.2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="E32" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>77</v>
-      </c>
-      <c r="E33" s="1">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="27">
-        <v>2007</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>74.3</v>
-      </c>
-      <c r="E35" s="3">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="10">
-        <v>71.7</v>
-      </c>
-      <c r="E36" s="10">
-        <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>77</v>
-      </c>
-      <c r="E37" s="1">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C38" s="27">
-        <v>2008</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="E39" s="3">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="10">
-        <v>71.8</v>
-      </c>
-      <c r="E40" s="10">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="E41" s="1">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C42" s="27">
-        <v>2009</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7">
-        <v>74</v>
-      </c>
-      <c r="E43" s="3">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="10">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="E44" s="10">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6">
-        <v>77</v>
-      </c>
-      <c r="E45" s="1">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C46" s="27">
-        <v>2010</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E47" s="3">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="E48" s="10">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="27">
-        <v>2011</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E51" s="3">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="E52" s="10">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>75.3</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C54" s="27">
-        <v>2012</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3">
-        <v>74.3</v>
-      </c>
-      <c r="E55" s="3">
-        <v>70.7</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="10">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="E56" s="10">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>77.3</v>
-      </c>
-      <c r="E57" s="1">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C58" s="27">
-        <v>2013</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="3">
-        <v>74.5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="10">
-        <v>71.7</v>
-      </c>
-      <c r="E60" s="10">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <v>77.41</v>
-      </c>
-      <c r="E61" s="6">
-        <v>75.77</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C62" s="27">
-        <v>2014</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="3">
-        <v>74.7</v>
-      </c>
-      <c r="E63" s="3">
-        <v>72.3</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="10">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="E64" s="10">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C65" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="16">
-        <v>77.5</v>
-      </c>
-      <c r="E65" s="17">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C66" s="22">
-        <v>2015</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="18">
-        <v>74.94536117826928</v>
-      </c>
-      <c r="E67" s="7">
-        <v>72.942186025434211</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="19">
-        <v>72.343460617682041</v>
-      </c>
-      <c r="E68" s="11">
-        <v>69.748179833697392</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C69" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="21">
-        <v>77.67735676688585</v>
-      </c>
-      <c r="E69" s="17">
-        <v>76.295892526757854</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C70" s="22">
-        <v>2016</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-    </row>
-    <row r="71" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="18">
-        <v>75.147899954063476</v>
-      </c>
-      <c r="E71" s="7">
-        <v>73.514306421169394</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="19">
-        <v>72.616444926393328</v>
-      </c>
-      <c r="E72" s="11">
-        <v>70.640996347757238</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="20">
-        <v>77.805927733117116</v>
-      </c>
-      <c r="E73" s="12">
-        <v>76.531281998252112</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="15"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="15"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" s="15"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C77" s="15"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="84" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C84" s="25" t="s">
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-    </row>
-    <row r="85" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="3:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="5"/>
-      <c r="D86" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="22">
-        <v>2017</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-    </row>
-    <row r="88" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="18">
-        <v>75.341954714066006</v>
-      </c>
-      <c r="E88" s="7">
-        <v>74.014282765397908</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="19">
-        <v>72.875216345325882</v>
-      </c>
-      <c r="E89" s="11">
-        <v>71.407194275962141</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="21">
-        <v>77.932030001243135</v>
-      </c>
-      <c r="E90" s="17">
-        <v>76.751725679305437</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C91" s="22">
-        <v>2018</v>
-      </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-    </row>
-    <row r="92" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="7">
-        <v>75.470828352862014</v>
-      </c>
-      <c r="E92" s="7">
-        <v>74.154430088968653</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C93" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="11">
-        <v>73.01341113533995</v>
-      </c>
-      <c r="E93" s="11">
-        <v>71.557504774414127</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="12">
-        <v>78.051116431260169</v>
-      </c>
-      <c r="E94" s="12">
-        <v>76.881201669250899</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C96" s="24" t="s">
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+    </row>
+    <row r="85" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C97" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C98" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-    </row>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
